--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="99">
   <si>
     <t>case_id</t>
   </si>
@@ -303,7 +303,10 @@
     <t>ok</t>
   </si>
   <si>
-    <t>SELECT fverify_code FROM sms_db_56.t_mvcode_info_4 WHERE fmobile = ${unregister_phone}</t>
+    <t>/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
+  </si>
+  <si>
+    <t>{"client_ip":"127.0.0.2","mobile":"${unregister_phone}","tmpl_id": 1}</t>
   </si>
   <si>
     <t>用户注册成功</t>
@@ -312,10 +315,13 @@
     <t>userRegister</t>
   </si>
   <si>
-    <t>/financeUserInfoFacade.ws?wsdl</t>
-  </si>
-  <si>
-    <t>{"channel_id":1,"client_ip":"127.0.0.1","mobile":"${unregister_phone}","pwd":"test1234","user_id":"前额有个旋","verify_code":"${verify_code}"}</t>
+    <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
+  </si>
+  <si>
+    <t>{"channel_id":1,"client_ip":"127.0.0.2","mobile":"${unregister_phone}","pwd":"test1234","user_id":"前额有个旋","verify_code":"${verify_code}"}</t>
+  </si>
+  <si>
+    <t>SELECT fverify_code FROM sms_db_56.t_mvcode_info_4 WHERE fmobile_no = ${unregister_phone}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2056,15 +2062,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5" customWidth="1"/>
     <col min="5" max="5" width="157.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
@@ -2109,10 +2115,10 @@
         <v>88</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>91</v>
@@ -2124,7 +2130,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -2132,16 +2138,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>91</v>
